--- a/Allen/Mitigation strategies (reweighting, debiasing) documented and validated/ollama_debiasing_scoring_weighted.xlsx
+++ b/Allen/Mitigation strategies (reweighting, debiasing) documented and validated/ollama_debiasing_scoring_weighted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,45 +466,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>audit_usefulness</t>
+          <t>w_evidence_extraction_quality</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>w_evidence_extraction_quality</t>
+          <t>w_coverage_of_debiasing_mitigation_dimensions</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>w_coverage_of_debiasing_mitigation_dimensions</t>
+          <t>w_structure_and_formatting</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>w_structure_and_formatting</t>
+          <t>w_relevance_and_faithfulness</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>w_relevance_and_faithfulness</t>
+          <t>w_identification_of_missing_disclosures</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>w_identification_of_missing_disclosures</t>
+          <t>weighted_final_score</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>w_audit_usefulness</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_final_score</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>justification</t>
         </is>
@@ -517,7 +507,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -526,38 +516,32 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I2" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K2" t="n">
         <v>0.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>The report demonstrates strong evidence extraction quality with accurate citations and full sentence quotations, though it lacks validation evidence for many methods. Coverage of debiasing dimensions is reasonable, mentioning various techniques but lacking depth in validation metrics. The structure is clear and organized, aiding readability. The report remains relevant and faithful to the sources, focusing on debiasing strategies. However, it could better identify missing disclosures, such as specific validation metrics. The audit usefulness is acceptable, but the lack of detailed validation evidence limits its effectiveness for cross-model comparison.</t>
+        <v>2.8</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>The report provides a reasonable extraction of evidence with correct citations, but lacks full sentences in some excerpts, affecting evidence extraction quality. Coverage of debiasing methods is broad, yet lacks depth in validation details, particularly for pre-processing and post-processing methods. The structure is clear and well-organized, aiding readability. However, relevance is compromised by some unsupported assumptions, such as the validation status of certain methods. Missing disclosures are not thoroughly identified, especially regarding the absence of validation metrics. The audit usefulness is moderate, as the report is traceable but lacks detailed validation evidence, limiting its utility for comprehensive audits.</t>
         </is>
       </c>
     </row>
